--- a/ТД_Эллада_1_parse.xlsx
+++ b/ТД_Эллада_1_parse.xlsx
@@ -17666,7 +17666,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Разрядность задания момента от КВУ</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -17679,11 +17679,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr">
         <is>
           <t>0</t>
@@ -19459,7 +19455,7 @@
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H370" t="inlineStr"/>
@@ -19475,7 +19471,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L370" t="n">
@@ -19512,7 +19508,7 @@
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H371" t="inlineStr"/>
@@ -19528,7 +19524,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L371" t="n">
@@ -19561,7 +19557,7 @@
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H372" t="inlineStr"/>
@@ -19577,7 +19573,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L372" t="n">
@@ -19610,7 +19606,7 @@
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H373" t="inlineStr"/>
@@ -19626,7 +19622,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -19663,7 +19659,7 @@
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H374" t="inlineStr"/>
@@ -19679,7 +19675,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L374" t="n">
@@ -19716,7 +19712,7 @@
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H375" t="inlineStr"/>
@@ -19732,7 +19728,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L375" t="n">
@@ -19769,7 +19765,7 @@
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H376" t="inlineStr"/>
@@ -19785,7 +19781,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L376" t="n">
@@ -19818,7 +19814,7 @@
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H377" t="inlineStr"/>
@@ -19834,7 +19830,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L377" t="n">
@@ -19871,7 +19867,7 @@
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H378" t="inlineStr"/>
@@ -19887,7 +19883,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L378" t="n">
@@ -19924,7 +19920,7 @@
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H379" t="inlineStr"/>
@@ -19940,7 +19936,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -19977,7 +19973,7 @@
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H380" t="inlineStr"/>
@@ -19993,7 +19989,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L380" t="n">
@@ -20030,7 +20026,7 @@
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H381" t="inlineStr"/>
@@ -20046,7 +20042,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L381" t="n">
@@ -24032,7 +24028,7 @@
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H461" t="inlineStr"/>
@@ -24048,7 +24044,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L461" t="n">
@@ -24567,7 +24563,11 @@
       <c r="M471" t="inlineStr"/>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Номинальная  температура</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>0x51130c</t>
@@ -26363,7 +26363,7 @@
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H508" t="inlineStr"/>
@@ -26379,7 +26379,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L508" t="n">
@@ -26569,7 +26569,7 @@
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H512" t="inlineStr"/>
@@ -26585,7 +26585,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L512" t="n">
@@ -31299,7 +31299,7 @@
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H608" t="inlineStr"/>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L608" t="n">
@@ -31352,7 +31352,7 @@
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H609" t="inlineStr"/>
@@ -31368,7 +31368,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L609" t="n">
@@ -31922,7 +31922,7 @@
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H621" t="inlineStr"/>
@@ -31938,7 +31938,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L621" t="n">
@@ -34959,7 +34959,7 @@
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H682" t="inlineStr"/>
@@ -34975,7 +34975,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L682" t="n">
@@ -35065,7 +35065,7 @@
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H684" t="inlineStr"/>
@@ -35081,7 +35081,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L684" t="n">
@@ -49305,7 +49305,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t xml:space="preserve">group </t>
+          <t>group HFinjection</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -53988,7 +53988,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Таймаут предзаряда, 0.1мс</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
@@ -54001,11 +54001,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D1069" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+      <c r="D1069" t="inlineStr"/>
       <c r="E1069" t="inlineStr">
         <is>
           <t>0</t>
@@ -54041,7 +54037,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Таймаут предзаряда, 0.1мс</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
@@ -54054,11 +54050,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+      <c r="D1070" t="inlineStr"/>
       <c r="E1070" t="inlineStr">
         <is>
           <t>0</t>
@@ -54094,7 +54086,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Вкл. контактора предзаряда</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
@@ -54107,11 +54099,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D1071" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+      <c r="D1071" t="inlineStr"/>
       <c r="E1071" t="inlineStr">
         <is>
           <t>0</t>
@@ -54147,7 +54135,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Вкл. основного контактора</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
@@ -54160,11 +54148,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D1072" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+      <c r="D1072" t="inlineStr"/>
       <c r="E1072" t="inlineStr">
         <is>
           <t>0</t>
@@ -55353,7 +55337,7 @@
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H1096" t="inlineStr"/>
@@ -55369,7 +55353,7 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L1096" t="n">
@@ -55657,7 +55641,7 @@
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H1102" t="inlineStr"/>
@@ -55673,7 +55657,7 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L1102" t="n">
@@ -55710,7 +55694,7 @@
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H1103" t="inlineStr"/>
@@ -55726,7 +55710,7 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L1103" t="n">
@@ -55763,7 +55747,7 @@
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H1104" t="inlineStr"/>
@@ -55779,7 +55763,7 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L1104" t="n">
@@ -55816,7 +55800,7 @@
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H1105" t="inlineStr"/>
@@ -55832,7 +55816,7 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L1105" t="n">
@@ -55975,7 +55959,7 @@
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H1108" t="inlineStr"/>
@@ -55991,7 +55975,7 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L1108" t="n">
@@ -58644,7 +58628,7 @@
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr"/>
@@ -58660,7 +58644,7 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L1163" t="n">
@@ -58789,7 +58773,7 @@
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>I16vparam</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr"/>
@@ -58805,7 +58789,7 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>SIGNED16</t>
+          <t>SIGNED32</t>
         </is>
       </c>
       <c r="L1166" t="n">
